--- a/fromPython.xlsx
+++ b/fromPython.xlsx
@@ -19,7 +19,7 @@
     <t>Fruits</t>
   </si>
   <si>
-    <t>apple</t>
+    <t>trap</t>
   </si>
   <si>
     <t>pears</t>
